--- a/biology/Botanique/Viscountess_Enfield/Viscountess_Enfield.xlsx
+++ b/biology/Botanique/Viscountess_Enfield/Viscountess_Enfield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Viscountess Enfield' est un cultivar de rosier hybride de thé obtenu en 1910 par le rosiériste lyonnais Joseph Pernet-Ducher. Ce rosier est dédié à une aristocrate anglaise francophile, la vicomtesse Enfield[1], qui édita (1883-1905) le Journal de son oncle diplomate George William Greville (1801-1872), dont notamment les feuilles des années 1830-1840 décrivent la vie politique à Paris[2]. Cette rose était classée à l'origine comme pernetiana. Elle n'est plus commercialisée.
+'Viscountess Enfield' est un cultivar de rosier hybride de thé obtenu en 1910 par le rosiériste lyonnais Joseph Pernet-Ducher. Ce rosier est dédié à une aristocrate anglaise francophile, la vicomtesse Enfield, qui édita (1883-1905) le Journal de son oncle diplomate George William Greville (1801-1872), dont notamment les feuilles des années 1830-1840 décrivent la vie politique à Paris. Cette rose était classée à l'origine comme pernetiana. Elle n'est plus commercialisée.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette rose est une des nombreuses variétés issues de 'Soleil d'Or' (Pernet-Ducher, 1900), pour elle d'un semis, à la recherche de la rose idéale. Elle présente des fleurs de 8 à 10 cm de couleur vieux rose orangé teintée de jaune bouton d'or[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette rose est une des nombreuses variétés issues de 'Soleil d'Or' (Pernet-Ducher, 1900), pour elle d'un semis, à la recherche de la rose idéale. Elle présente des fleurs de 8 à 10 cm de couleur vieux rose orangé teintée de jaune bouton d'or.
 C'est une variété rustique supportant les hivers froids, mais qui nécessite des soins. Son buisson érigé aux aiguillons peu saillants s'élève à 110 cm. Son feuillage est vert brun. Elle a eu un certain renom en France et en Angleterre, mais elle a été vite dépassée par des variétés plus vigoureuses, comme 'Lyon Rose', malgré ses coloris délicatement raffinés.
 </t>
         </is>
